--- a/Feature-Analysis/Resize Feature/s_05_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_05_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.76415509265</v>
+        <v>738157.76415509265</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.76445601857</v>
+        <v>738157.76445601857</v>
       </c>
       <c r="C3" s="0">
         <v>25.999999791383743</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.76487268519</v>
+        <v>738157.76487268519</v>
       </c>
       <c r="C4" s="0">
         <v>61.99999563395977</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.76496527775</v>
+        <v>738157.76496527775</v>
       </c>
       <c r="C5" s="0">
         <v>69.999992474913597</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.76520833338</v>
+        <v>738157.76520833338</v>
       </c>
       <c r="C6" s="0">
         <v>90.999999269843102</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.76577546296</v>
+        <v>738157.76577546296</v>
       </c>
       <c r="C7" s="0">
         <v>139.999995008111</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.76577546296</v>
+        <v>738157.76577546296</v>
       </c>
       <c r="C8" s="0">
         <v>139.999995008111</v>
@@ -6552,7 +6552,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.76699074078</v>
+        <v>738157.76699074078</v>
       </c>
       <c r="C9" s="0">
         <v>244.9999988079071</v>
@@ -7247,7 +7247,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.76699074078</v>
+        <v>738157.76699074078</v>
       </c>
       <c r="C10" s="0">
         <v>244.9999988079071</v>
@@ -7942,7 +7942,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.76699074078</v>
+        <v>738157.76699074078</v>
       </c>
       <c r="C11" s="0">
         <v>244.9999988079071</v>
@@ -8637,7 +8637,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.76699074078</v>
+        <v>738157.76699074078</v>
       </c>
       <c r="C12" s="0">
         <v>244.9999988079071</v>
@@ -9332,7 +9332,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.76699074078</v>
+        <v>738157.76699074078</v>
       </c>
       <c r="C13" s="0">
         <v>244.9999988079071</v>
@@ -10027,7 +10027,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.7672337963</v>
+        <v>738157.7672337963</v>
       </c>
       <c r="C14" s="0">
         <v>265.9999955445528</v>
@@ -10722,7 +10722,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.76773148146</v>
+        <v>738157.76773148146</v>
       </c>
       <c r="C15" s="0">
         <v>308.99999365210533</v>
@@ -11417,7 +11417,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.7679282407</v>
+        <v>738157.7679282407</v>
       </c>
       <c r="C16" s="0">
         <v>325.99999196827412</v>
@@ -12112,7 +12112,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.76815972221</v>
+        <v>738157.76815972221</v>
       </c>
       <c r="C17" s="0">
         <v>345.99999412894249</v>
@@ -12807,7 +12807,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.76840277773</v>
+        <v>738157.76840277773</v>
       </c>
       <c r="C18" s="0">
         <v>366.99999086558819</v>
@@ -13502,7 +13502,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.76873842592</v>
+        <v>738157.76873842592</v>
       </c>
       <c r="C19" s="0">
         <v>395.99999450147152</v>
@@ -14197,7 +14197,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.76885416661</v>
+        <v>738157.76885416661</v>
       </c>
       <c r="C20" s="0">
         <v>405.9999905526638</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.76907407411</v>
+        <v>738157.76907407411</v>
       </c>
       <c r="C21" s="0">
         <v>424.99999813735485</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.76943287032</v>
+        <v>738157.76943287032</v>
       </c>
       <c r="C22" s="0">
         <v>455.99999092519283</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.76959490741</v>
+        <v>738157.76959490741</v>
       </c>
       <c r="C23" s="0">
         <v>469.99999545514584</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.7698726852</v>
+        <v>738157.7698726852</v>
       </c>
       <c r="C24" s="0">
         <v>493.99999603629112</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.77011574071</v>
+        <v>738157.77011574071</v>
       </c>
       <c r="C25" s="0">
         <v>514.99999277293682</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.77034722222</v>
+        <v>738157.77034722222</v>
       </c>
       <c r="C26" s="0">
         <v>534.99999493360519</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.77060185187</v>
+        <v>738157.77060185187</v>
       </c>
       <c r="C27" s="0">
         <v>556.99999630451202</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.77082175924</v>
+        <v>738157.77082175924</v>
       </c>
       <c r="C28" s="0">
         <v>575.99999383091927</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.77107638889</v>
+        <v>738157.77107638889</v>
       </c>
       <c r="C29" s="0">
         <v>597.9999952018261</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.77152777778</v>
+        <v>738157.77152777778</v>
       </c>
       <c r="C30" s="0">
         <v>636.99999488890171</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.77247685182</v>
+        <v>738157.77247685182</v>
       </c>
       <c r="C31" s="0">
         <v>718.99999268352985</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.77247685182</v>
+        <v>738157.77247685182</v>
       </c>
       <c r="C32" s="0">
         <v>718.99999268352985</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.77247685182</v>
+        <v>738157.77247685182</v>
       </c>
       <c r="C33" s="0">
         <v>718.99999268352985</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.77247685182</v>
+        <v>738157.77247685182</v>
       </c>
       <c r="C34" s="0">
         <v>718.99999268352985</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.77262731479</v>
+        <v>738157.77262731479</v>
       </c>
       <c r="C35" s="0">
         <v>731.99999257922173</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.77293981484</v>
+        <v>738157.77293981484</v>
       </c>
       <c r="C36" s="0">
         <v>758.9999970048666</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.77322916663</v>
+        <v>738157.77322916663</v>
       </c>
       <c r="C37" s="0">
         <v>783.99999216198921</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.77357638883</v>
+        <v>738157.77357638883</v>
       </c>
       <c r="C38" s="0">
         <v>813.99999037384987</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.77373842592</v>
+        <v>738157.77373842592</v>
       </c>
       <c r="C39" s="0">
         <v>827.99999490380287</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.77414351853</v>
+        <v>738157.77414351853</v>
       </c>
       <c r="C40" s="0">
         <v>862.99999617040157</v>
